--- a/truck_schedule_output.xlsx
+++ b/truck_schedule_output.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="234">
   <si>
     <t>Truck1</t>
   </si>
@@ -55,40 +55,142 @@
     <t>Go back to warehouse, Start: 14:00, End: 14:41</t>
   </si>
   <si>
+    <t>70, Start: 7:00, End: 7:49</t>
+  </si>
+  <si>
+    <t>wait to deliver 70, Start: 7:49, End: 12:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 12:30, End: 13:18</t>
+  </si>
+  <si>
+    <t>74, Start: 7:00, End: 7:40</t>
+  </si>
+  <si>
+    <t>wait to deliver 74, Start: 7:40, End: 10:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 10:00, End: 10:39</t>
+  </si>
+  <si>
+    <t>26, Start: 7:00, End: 8:00</t>
+  </si>
+  <si>
+    <t>wait to deliver 26, Start: 8:00, End: 8:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 8:30, End: 9:31</t>
+  </si>
+  <si>
+    <t>96, Start: 7:00, End: 7:22</t>
+  </si>
+  <si>
+    <t>wait to deliver 96, Start: 7:22, End: 16:00</t>
+  </si>
+  <si>
+    <t>51, Start: 16:00, End: 17:01</t>
+  </si>
+  <si>
+    <t>wait to deliver 51, Start: 17:01, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 17:59</t>
+  </si>
+  <si>
     <t>29, Start: 7:00, End: 7:23</t>
   </si>
   <si>
     <t>wait to deliver 29, Start: 7:23, End: 12:00</t>
   </si>
   <si>
-    <t>Go back to warehouse, Start: 12:00, End: 12:23</t>
-  </si>
-  <si>
-    <t>74, Start: 7:00, End: 7:40</t>
-  </si>
-  <si>
-    <t>wait to deliver 74, Start: 7:40, End: 10:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 10:00, End: 10:39</t>
-  </si>
-  <si>
-    <t>26, Start: 7:00, End: 8:00</t>
-  </si>
-  <si>
-    <t>wait to deliver 26, Start: 8:00, End: 8:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 8:30, End: 9:31</t>
-  </si>
-  <si>
-    <t>70, Start: 7:00, End: 7:49</t>
-  </si>
-  <si>
-    <t>wait to deliver 70, Start: 7:49, End: 12:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 12:30, End: 13:18</t>
+    <t>32, Start: 12:00, End: 12:43</t>
+  </si>
+  <si>
+    <t>wait to deliver 32, Start: 12:43, End: 14:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 14:30, End: 15:12</t>
+  </si>
+  <si>
+    <t>6, Start: 7:00, End: 7:43</t>
+  </si>
+  <si>
+    <t>wait to deliver 6, Start: 7:43, End: 13:00</t>
+  </si>
+  <si>
+    <t>80, Start: 13:00, End: 13:21</t>
+  </si>
+  <si>
+    <t>wait to deliver 80, Start: 13:21, End: 14:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 14:00, End: 14:23</t>
+  </si>
+  <si>
+    <t>17, Start: 7:00, End: 7:42</t>
+  </si>
+  <si>
+    <t>wait to deliver 17, Start: 7:42, End: 10:00</t>
+  </si>
+  <si>
+    <t>78, Start: 10:00, End: 10:36</t>
+  </si>
+  <si>
+    <t>wait to deliver 78, Start: 10:36, End: 16:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 16:30, End: 17:07</t>
+  </si>
+  <si>
+    <t>89, Start: 7:00, End: 7:40</t>
+  </si>
+  <si>
+    <t>wait to deliver 89, Start: 7:40, End: 12:00</t>
+  </si>
+  <si>
+    <t>83, Start: 12:00, End: 12:42</t>
+  </si>
+  <si>
+    <t>wait to deliver 83, Start: 12:42, End: 15:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 15:30, End: 16:09</t>
+  </si>
+  <si>
+    <t>2, Start: 7:00, End: 7:29</t>
+  </si>
+  <si>
+    <t>wait to deliver 2, Start: 7:29, End: 12:00</t>
+  </si>
+  <si>
+    <t>55, Start: 12:00, End: 12:13</t>
+  </si>
+  <si>
+    <t>wait to deliver 55, Start: 12:13, End: 15:00</t>
+  </si>
+  <si>
+    <t>61, Start: 15:00, End: 15:19</t>
+  </si>
+  <si>
+    <t>wait to deliver 61, Start: 15:19, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 17:19</t>
+  </si>
+  <si>
+    <t>84, Start: 7:00, End: 8:05</t>
+  </si>
+  <si>
+    <t>wait to deliver 84, Start: 8:05, End: 13:00</t>
+  </si>
+  <si>
+    <t>46, Start: 13:00, End: 14:06</t>
+  </si>
+  <si>
+    <t>wait to deliver 46, Start: 14:06, End: 15:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 15:30, End: 16:38</t>
   </si>
   <si>
     <t>33, Start: 7:00, End: 8:05</t>
@@ -97,652 +199,538 @@
     <t>wait to deliver 33, Start: 8:05, End: 9:30</t>
   </si>
   <si>
-    <t>78, Start: 9:30, End: 10:06</t>
-  </si>
-  <si>
-    <t>wait to deliver 78, Start: 10:06, End: 16:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 16:30, End: 17:07</t>
-  </si>
-  <si>
-    <t>96, Start: 7:00, End: 7:22</t>
-  </si>
-  <si>
-    <t>wait to deliver 96, Start: 7:22, End: 16:00</t>
+    <t>49, Start: 9:30, End: 10:31</t>
+  </si>
+  <si>
+    <t>wait to deliver 49, Start: 10:31, End: 15:00</t>
+  </si>
+  <si>
+    <t>16, Start: 15:00, End: 15:34</t>
+  </si>
+  <si>
+    <t>wait to deliver 16, Start: 15:34, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 17:37</t>
+  </si>
+  <si>
+    <t>79, Start: 7:00, End: 7:38</t>
+  </si>
+  <si>
+    <t>wait to deliver 79, Start: 7:38, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 17:38</t>
+  </si>
+  <si>
+    <t>54, Start: 7:00, End: 7:48</t>
+  </si>
+  <si>
+    <t>wait to deliver 54, Start: 7:48, End: 15:00</t>
+  </si>
+  <si>
+    <t>98, Start: 15:00, End: 16:03</t>
+  </si>
+  <si>
+    <t>wait to deliver 98, Start: 16:03, End: 16:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 16:30, End: 17:34</t>
+  </si>
+  <si>
+    <t>10, Start: 7:00, End: 7:42</t>
+  </si>
+  <si>
+    <t>wait to deliver 10, Start: 7:42, End: 11:00</t>
+  </si>
+  <si>
+    <t>93, Start: 11:00, End: 11:21</t>
+  </si>
+  <si>
+    <t>wait to deliver 93, Start: 11:21, End: 12:00</t>
+  </si>
+  <si>
+    <t>94, Start: 12:00, End: 12:54</t>
+  </si>
+  <si>
+    <t>wait to deliver 94, Start: 12:54, End: 16:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 16:30, End: 17:23</t>
+  </si>
+  <si>
+    <t>52, Start: 7:00, End: 7:46</t>
+  </si>
+  <si>
+    <t>wait to deliver 52, Start: 7:46, End: 9:00</t>
+  </si>
+  <si>
+    <t>62, Start: 9:00, End: 9:58</t>
+  </si>
+  <si>
+    <t>wait to deliver 62, Start: 9:58, End: 16:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 16:00, End: 16:59</t>
+  </si>
+  <si>
+    <t>86, Start: 7:00, End: 8:04</t>
+  </si>
+  <si>
+    <t>wait to deliver 86, Start: 8:04, End: 10:30</t>
+  </si>
+  <si>
+    <t>27, Start: 10:30, End: 10:40</t>
+  </si>
+  <si>
+    <t>wait to deliver 27, Start: 10:40, End: 13:00</t>
+  </si>
+  <si>
+    <t>30, Start: 13:00, End: 14:06</t>
+  </si>
+  <si>
+    <t>wait to deliver 30, Start: 14:06, End: 16:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 16:30, End: 17:33</t>
+  </si>
+  <si>
+    <t>Order: 92</t>
+  </si>
+  <si>
+    <t>Order: 34</t>
+  </si>
+  <si>
+    <t>68, Start: 7:00, End: 7:55</t>
+  </si>
+  <si>
+    <t>wait to deliver 68, Start: 7:55, End: 10:30</t>
+  </si>
+  <si>
+    <t>58, Start: 10:30, End: 10:53</t>
+  </si>
+  <si>
+    <t>wait to deliver 58, Start: 10:53, End: 11:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 11:30, End: 11:52</t>
+  </si>
+  <si>
+    <t>41, Start: 7:00, End: 7:16</t>
+  </si>
+  <si>
+    <t>wait to deliver 41, Start: 7:16, End: 10:00</t>
+  </si>
+  <si>
+    <t>22, Start: 10:00, End: 10:54</t>
+  </si>
+  <si>
+    <t>wait to deliver 22, Start: 10:54, End: 12:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 12:00, End: 12:54</t>
+  </si>
+  <si>
+    <t>60, Start: 7:00, End: 7:17</t>
+  </si>
+  <si>
+    <t>wait to deliver 60, Start: 7:17, End: 10:00</t>
+  </si>
+  <si>
+    <t>56, Start: 10:00, End: 10:25</t>
+  </si>
+  <si>
+    <t>wait to deliver 56, Start: 10:25, End: 12:30</t>
+  </si>
+  <si>
+    <t>47, Start: 12:30, End: 13:17</t>
+  </si>
+  <si>
+    <t>wait to deliver 47, Start: 13:17, End: 14:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 14:00, End: 14:49</t>
+  </si>
+  <si>
+    <t>57, Start: 7:00, End: 7:34</t>
+  </si>
+  <si>
+    <t>wait to deliver 57, Start: 7:34, End: 8:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 8:30, End: 9:03</t>
+  </si>
+  <si>
+    <t>Order: 13</t>
+  </si>
+  <si>
+    <t>Order: 81</t>
+  </si>
+  <si>
+    <t>Order: 88</t>
+  </si>
+  <si>
+    <t>Order: 48</t>
+  </si>
+  <si>
+    <t>11, Start: 7:00, End: 8:03</t>
+  </si>
+  <si>
+    <t>wait to deliver 11, Start: 8:03, End: 8:30</t>
+  </si>
+  <si>
+    <t>71, Start: 8:30, End: 9:13</t>
+  </si>
+  <si>
+    <t>wait to deliver 71, Start: 9:13, End: 13:30</t>
+  </si>
+  <si>
+    <t>39, Start: 13:30, End: 14:24</t>
+  </si>
+  <si>
+    <t>wait to deliver 39, Start: 14:24, End: 15:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 15:30, End: 16:21</t>
+  </si>
+  <si>
+    <t>67, Start: 7:00, End: 7:57</t>
+  </si>
+  <si>
+    <t>wait to deliver 67, Start: 7:57, End: 8:00</t>
+  </si>
+  <si>
+    <t>20, Start: 8:00, End: 8:42</t>
+  </si>
+  <si>
+    <t>wait to deliver 20, Start: 8:42, End: 11:30</t>
+  </si>
+  <si>
+    <t>64, Start: 11:30, End: 12:28</t>
+  </si>
+  <si>
+    <t>wait to deliver 64, Start: 12:28, End: 14:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 14:30, End: 15:28</t>
+  </si>
+  <si>
+    <t>44, Start: 7:00, End: 7:18</t>
+  </si>
+  <si>
+    <t>wait to deliver 44, Start: 7:18, End: 14:00</t>
+  </si>
+  <si>
+    <t>53, Start: 14:00, End: 15:02</t>
+  </si>
+  <si>
+    <t>wait to deliver 53, Start: 15:02, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 18:01</t>
+  </si>
+  <si>
+    <t>76, Start: 7:00, End: 8:00</t>
+  </si>
+  <si>
+    <t>wait to deliver 76, Start: 8:00, End: 11:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 11:00, End: 11:58</t>
+  </si>
+  <si>
+    <t>Order: 21</t>
+  </si>
+  <si>
+    <t>Order: 8</t>
+  </si>
+  <si>
+    <t>Order: 91</t>
+  </si>
+  <si>
+    <t>Order: 82</t>
+  </si>
+  <si>
+    <t>85, Start: 7:00, End: 7:38</t>
+  </si>
+  <si>
+    <t>wait to deliver 85, Start: 7:38, End: 11:30</t>
+  </si>
+  <si>
+    <t>59, Start: 11:30, End: 12:04</t>
+  </si>
+  <si>
+    <t>wait to deliver 59, Start: 12:04, End: 15:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 15:00, End: 15:33</t>
+  </si>
+  <si>
+    <t>14, Start: 7:00, End: 7:40</t>
+  </si>
+  <si>
+    <t>wait to deliver 14, Start: 7:40, End: 12:00</t>
+  </si>
+  <si>
+    <t>4, Start: 12:00, End: 12:45</t>
+  </si>
+  <si>
+    <t>wait to deliver 4, Start: 12:45, End: 14:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 14:00, End: 14:44</t>
+  </si>
+  <si>
+    <t>87, Start: 7:00, End: 7:38</t>
+  </si>
+  <si>
+    <t>wait to deliver 87, Start: 7:38, End: 12:30</t>
+  </si>
+  <si>
+    <t>97, Start: 12:30, End: 13:26</t>
+  </si>
+  <si>
+    <t>wait to deliver 97, Start: 13:26, End: 15:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 15:30, End: 16:24</t>
+  </si>
+  <si>
+    <t>45, Start: 7:00, End: 7:57</t>
+  </si>
+  <si>
+    <t>wait to deliver 45, Start: 7:57, End: 9:30</t>
+  </si>
+  <si>
+    <t>42, Start: 9:30, End: 9:54</t>
+  </si>
+  <si>
+    <t>wait to deliver 42, Start: 9:54, End: 14:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 14:30, End: 14:56</t>
+  </si>
+  <si>
+    <t>73, Start: 7:00, End: 7:28</t>
+  </si>
+  <si>
+    <t>wait to deliver 73, Start: 7:28, End: 12:00</t>
+  </si>
+  <si>
+    <t>31, Start: 12:00, End: 12:50</t>
+  </si>
+  <si>
+    <t>wait to deliver 31, Start: 12:50, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 17:48</t>
+  </si>
+  <si>
+    <t>99, Start: 7:00, End: 7:17</t>
+  </si>
+  <si>
+    <t>wait to deliver 99, Start: 7:17, End: 11:30</t>
+  </si>
+  <si>
+    <t>37, Start: 11:30, End: 12:12</t>
+  </si>
+  <si>
+    <t>wait to deliver 37, Start: 12:12, End: 15:30</t>
+  </si>
+  <si>
+    <t>18, Start: 15:30, End: 15:43</t>
+  </si>
+  <si>
+    <t>wait to deliver 18, Start: 15:43, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 17:13</t>
+  </si>
+  <si>
+    <t>36, Start: 7:00, End: 7:24</t>
+  </si>
+  <si>
+    <t>wait to deliver 36, Start: 7:24, End: 11:00</t>
+  </si>
+  <si>
+    <t>19, Start: 11:00, End: 11:18</t>
+  </si>
+  <si>
+    <t>wait to deliver 19, Start: 11:18, End: 17:00</t>
+  </si>
+  <si>
+    <t>65, Start: 7:00, End: 7:45</t>
+  </si>
+  <si>
+    <t>wait to deliver 65, Start: 7:45, End: 16:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 16:30, End: 17:17</t>
+  </si>
+  <si>
+    <t>Order: 24</t>
+  </si>
+  <si>
+    <t>72, Start: 7:00, End: 7:37</t>
+  </si>
+  <si>
+    <t>wait to deliver 72, Start: 7:37, End: 9:30</t>
+  </si>
+  <si>
+    <t>35, Start: 9:30, End: 10:21</t>
+  </si>
+  <si>
+    <t>wait to deliver 35, Start: 10:21, End: 11:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 11:00, End: 11:50</t>
+  </si>
+  <si>
+    <t>23, Start: 7:00, End: 7:40</t>
+  </si>
+  <si>
+    <t>wait to deliver 23, Start: 7:40, End: 14:30</t>
+  </si>
+  <si>
+    <t>75, Start: 14:30, End: 15:18</t>
+  </si>
+  <si>
+    <t>wait to deliver 75, Start: 15:18, End: 15:30</t>
+  </si>
+  <si>
+    <t>25, Start: 15:30, End: 15:55</t>
+  </si>
+  <si>
+    <t>wait to deliver 25, Start: 15:55, End: 17:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:00, End: 17:29</t>
+  </si>
+  <si>
+    <t>12, Start: 7:00, End: 7:54</t>
+  </si>
+  <si>
+    <t>wait to deliver 12, Start: 7:54, End: 9:00</t>
+  </si>
+  <si>
+    <t>3, Start: 9:00, End: 9:42</t>
+  </si>
+  <si>
+    <t>wait to deliver 3, Start: 9:42, End: 15:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 15:00, End: 15:43</t>
+  </si>
+  <si>
+    <t>95, Start: 7:00, End: 7:39</t>
+  </si>
+  <si>
+    <t>wait to deliver 95, Start: 7:39, End: 9:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 9:00, End: 9:40</t>
+  </si>
+  <si>
+    <t>38, Start: 7:00, End: 7:50</t>
+  </si>
+  <si>
+    <t>wait to deliver 38, Start: 7:50, End: 8:30</t>
+  </si>
+  <si>
+    <t>43, Start: 8:30, End: 9:09</t>
+  </si>
+  <si>
+    <t>wait to deliver 43, Start: 9:09, End: 17:00</t>
+  </si>
+  <si>
+    <t>40, Start: 7:00, End: 7:12</t>
+  </si>
+  <si>
+    <t>wait to deliver 40, Start: 7:12, End: 8:00</t>
+  </si>
+  <si>
+    <t>1, Start: 8:00, End: 8:39</t>
+  </si>
+  <si>
+    <t>wait to deliver 1, Start: 8:39, End: 10:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 10:30, End: 11:10</t>
+  </si>
+  <si>
+    <t>77, Start: 7:00, End: 7:28</t>
+  </si>
+  <si>
+    <t>wait to deliver 77, Start: 7:28, End: 10:00</t>
+  </si>
+  <si>
+    <t>5, Start: 10:00, End: 10:33</t>
+  </si>
+  <si>
+    <t>wait to deliver 5, Start: 10:33, End: 15:00</t>
+  </si>
+  <si>
+    <t>7, Start: 15:00, End: 15:48</t>
+  </si>
+  <si>
+    <t>wait to deliver 7, Start: 15:48, End: 17:00</t>
+  </si>
+  <si>
+    <t>90, Start: 7:00, End: 7:26</t>
+  </si>
+  <si>
+    <t>wait to deliver 90, Start: 7:26, End: 11:30</t>
+  </si>
+  <si>
+    <t>28, Start: 11:30, End: 12:29</t>
+  </si>
+  <si>
+    <t>wait to deliver 28, Start: 12:29, End: 17:30</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 17:30, End: 18:28</t>
+  </si>
+  <si>
+    <t>69, Start: 7:00, End: 8:00</t>
+  </si>
+  <si>
+    <t>wait to deliver 69, Start: 8:00, End: 14:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 14:00, End: 14:59</t>
+  </si>
+  <si>
+    <t>63, Start: 7:00, End: 8:01</t>
+  </si>
+  <si>
+    <t>wait to deliver 63, Start: 8:01, End: 11:30</t>
+  </si>
+  <si>
+    <t>50, Start: 11:30, End: 11:45</t>
+  </si>
+  <si>
+    <t>wait to deliver 50, Start: 11:45, End: 16:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 16:00, End: 16:17</t>
+  </si>
+  <si>
+    <t>15, Start: 7:00, End: 7:35</t>
+  </si>
+  <si>
+    <t>wait to deliver 15, Start: 7:35, End: 15:00</t>
+  </si>
+  <si>
+    <t>Go back to warehouse, Start: 15:00, End: 15:31</t>
+  </si>
+  <si>
+    <t>66, Start: 7:00, End: 7:16</t>
+  </si>
+  <si>
+    <t>wait to deliver 66, Start: 7:16, End: 16:00</t>
   </si>
   <si>
     <t>Go back to warehouse, Start: 16:00, End: 16:22</t>
-  </si>
-  <si>
-    <t>84, Start: 7:00, End: 8:05</t>
-  </si>
-  <si>
-    <t>wait to deliver 84, Start: 8:05, End: 13:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 13:00, End: 14:04</t>
-  </si>
-  <si>
-    <t>17, Start: 7:00, End: 7:42</t>
-  </si>
-  <si>
-    <t>wait to deliver 17, Start: 7:42, End: 10:00</t>
-  </si>
-  <si>
-    <t>93, Start: 10:00, End: 10:21</t>
-  </si>
-  <si>
-    <t>wait to deliver 93, Start: 10:21, End: 12:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 12:00, End: 12:18</t>
-  </si>
-  <si>
-    <t>46, Start: 7:00, End: 8:06</t>
-  </si>
-  <si>
-    <t>wait to deliver 46, Start: 8:06, End: 15:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 15:30, End: 16:38</t>
-  </si>
-  <si>
-    <t>89, Start: 7:00, End: 7:40</t>
-  </si>
-  <si>
-    <t>wait to deliver 89, Start: 7:40, End: 12:00</t>
-  </si>
-  <si>
-    <t>80, Start: 12:00, End: 12:21</t>
-  </si>
-  <si>
-    <t>wait to deliver 80, Start: 12:21, End: 14:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 14:00, End: 14:23</t>
-  </si>
-  <si>
-    <t>41, Start: 7:00, End: 7:16</t>
-  </si>
-  <si>
-    <t>wait to deliver 41, Start: 7:16, End: 10:00</t>
-  </si>
-  <si>
-    <t>79, Start: 10:00, End: 10:38</t>
-  </si>
-  <si>
-    <t>wait to deliver 79, Start: 10:38, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:38</t>
-  </si>
-  <si>
-    <t>14, Start: 7:00, End: 7:40</t>
-  </si>
-  <si>
-    <t>wait to deliver 14, Start: 7:40, End: 12:00</t>
-  </si>
-  <si>
-    <t>83, Start: 12:00, End: 12:42</t>
-  </si>
-  <si>
-    <t>wait to deliver 83, Start: 12:42, End: 15:30</t>
-  </si>
-  <si>
-    <t>61, Start: 15:30, End: 15:49</t>
-  </si>
-  <si>
-    <t>wait to deliver 61, Start: 15:49, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:19</t>
-  </si>
-  <si>
-    <t>55, Start: 7:00, End: 7:13</t>
-  </si>
-  <si>
-    <t>wait to deliver 55, Start: 7:13, End: 15:00</t>
-  </si>
-  <si>
-    <t>94, Start: 15:00, End: 15:54</t>
-  </si>
-  <si>
-    <t>wait to deliver 94, Start: 15:54, End: 16:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 16:30, End: 17:23</t>
-  </si>
-  <si>
-    <t>49, Start: 7:00, End: 8:01</t>
-  </si>
-  <si>
-    <t>wait to deliver 49, Start: 8:01, End: 15:00</t>
-  </si>
-  <si>
-    <t>16, Start: 15:00, End: 15:34</t>
-  </si>
-  <si>
-    <t>wait to deliver 16, Start: 15:34, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:37</t>
-  </si>
-  <si>
-    <t>Order: 27</t>
-  </si>
-  <si>
-    <t>22, Start: 7:00, End: 7:54</t>
-  </si>
-  <si>
-    <t>wait to deliver 22, Start: 7:54, End: 12:00</t>
-  </si>
-  <si>
-    <t>51, Start: 12:00, End: 13:01</t>
-  </si>
-  <si>
-    <t>wait to deliver 51, Start: 13:01, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:59</t>
-  </si>
-  <si>
-    <t>86, Start: 7:00, End: 8:04</t>
-  </si>
-  <si>
-    <t>wait to deliver 86, Start: 8:04, End: 10:30</t>
-  </si>
-  <si>
-    <t>71, Start: 10:30, End: 11:13</t>
-  </si>
-  <si>
-    <t>wait to deliver 71, Start: 11:13, End: 13:30</t>
-  </si>
-  <si>
-    <t>54, Start: 13:30, End: 14:18</t>
-  </si>
-  <si>
-    <t>wait to deliver 54, Start: 14:18, End: 15:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 15:00, End: 15:50</t>
-  </si>
-  <si>
-    <t>68, Start: 7:00, End: 7:55</t>
-  </si>
-  <si>
-    <t>wait to deliver 68, Start: 7:55, End: 10:30</t>
-  </si>
-  <si>
-    <t>98, Start: 10:30, End: 11:33</t>
-  </si>
-  <si>
-    <t>wait to deliver 98, Start: 11:33, End: 16:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 16:30, End: 17:34</t>
-  </si>
-  <si>
-    <t>60, Start: 7:00, End: 7:17</t>
-  </si>
-  <si>
-    <t>wait to deliver 60, Start: 7:17, End: 10:00</t>
-  </si>
-  <si>
-    <t>10, Start: 10:00, End: 10:42</t>
-  </si>
-  <si>
-    <t>wait to deliver 10, Start: 10:42, End: 11:00</t>
-  </si>
-  <si>
-    <t>32, Start: 11:00, End: 11:43</t>
-  </si>
-  <si>
-    <t>wait to deliver 32, Start: 11:43, End: 14:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 14:30, End: 15:12</t>
-  </si>
-  <si>
-    <t>Order: 30</t>
-  </si>
-  <si>
-    <t>Order: 58</t>
-  </si>
-  <si>
-    <t>Order: 34</t>
-  </si>
-  <si>
-    <t>6, Start: 7:00, End: 7:43</t>
-  </si>
-  <si>
-    <t>wait to deliver 6, Start: 7:43, End: 13:00</t>
-  </si>
-  <si>
-    <t>53, Start: 13:00, End: 14:02</t>
-  </si>
-  <si>
-    <t>wait to deliver 53, Start: 14:02, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 18:01</t>
-  </si>
-  <si>
-    <t>88, Start: 7:00, End: 7:46</t>
-  </si>
-  <si>
-    <t>wait to deliver 88, Start: 7:46, End: 11:00</t>
-  </si>
-  <si>
-    <t>81, Start: 11:00, End: 11:31</t>
-  </si>
-  <si>
-    <t>wait to deliver 81, Start: 11:31, End: 14:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 14:30, End: 15:04</t>
-  </si>
-  <si>
-    <t>2, Start: 7:00, End: 7:29</t>
-  </si>
-  <si>
-    <t>wait to deliver 2, Start: 7:29, End: 12:00</t>
-  </si>
-  <si>
-    <t>8, Start: 12:00, End: 12:50</t>
-  </si>
-  <si>
-    <t>wait to deliver 8, Start: 12:50, End: 14:30</t>
-  </si>
-  <si>
-    <t>39, Start: 14:30, End: 15:24</t>
-  </si>
-  <si>
-    <t>wait to deliver 39, Start: 15:24, End: 15:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 15:30, End: 16:21</t>
-  </si>
-  <si>
-    <t>57, Start: 7:00, End: 7:34</t>
-  </si>
-  <si>
-    <t>wait to deliver 57, Start: 7:34, End: 8:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 8:30, End: 9:03</t>
-  </si>
-  <si>
-    <t>Order: 90</t>
-  </si>
-  <si>
-    <t>Order: 13</t>
-  </si>
-  <si>
-    <t>76, Start: 7:00, End: 8:00</t>
-  </si>
-  <si>
-    <t>wait to deliver 76, Start: 8:00, End: 11:00</t>
-  </si>
-  <si>
-    <t>62, Start: 11:00, End: 11:58</t>
-  </si>
-  <si>
-    <t>wait to deliver 62, Start: 11:58, End: 16:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 16:00, End: 16:59</t>
-  </si>
-  <si>
-    <t>67, Start: 7:00, End: 7:57</t>
-  </si>
-  <si>
-    <t>wait to deliver 67, Start: 7:57, End: 8:00</t>
-  </si>
-  <si>
-    <t>20, Start: 8:00, End: 8:42</t>
-  </si>
-  <si>
-    <t>wait to deliver 20, Start: 8:42, End: 11:30</t>
-  </si>
-  <si>
-    <t>64, Start: 11:30, End: 12:28</t>
-  </si>
-  <si>
-    <t>wait to deliver 64, Start: 12:28, End: 14:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 14:30, End: 15:28</t>
-  </si>
-  <si>
-    <t>92, Start: 7:00, End: 7:53</t>
-  </si>
-  <si>
-    <t>wait to deliver 92, Start: 7:53, End: 11:30</t>
-  </si>
-  <si>
-    <t>91, Start: 11:30, End: 12:04</t>
-  </si>
-  <si>
-    <t>wait to deliver 91, Start: 12:04, End: 13:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 13:00, End: 13:33</t>
-  </si>
-  <si>
-    <t>82, Start: 7:00, End: 7:10</t>
-  </si>
-  <si>
-    <t>wait to deliver 82, Start: 7:10, End: 10:00</t>
-  </si>
-  <si>
-    <t>21, Start: 10:00, End: 10:37</t>
-  </si>
-  <si>
-    <t>wait to deliver 21, Start: 10:37, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:28</t>
-  </si>
-  <si>
-    <t>Order: 11</t>
-  </si>
-  <si>
-    <t>12, Start: 7:00, End: 7:54</t>
-  </si>
-  <si>
-    <t>wait to deliver 12, Start: 7:54, End: 9:00</t>
-  </si>
-  <si>
-    <t>97, Start: 9:00, End: 9:56</t>
-  </si>
-  <si>
-    <t>wait to deliver 97, Start: 9:56, End: 15:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 15:30, End: 16:24</t>
-  </si>
-  <si>
-    <t>56, Start: 7:00, End: 7:25</t>
-  </si>
-  <si>
-    <t>wait to deliver 56, Start: 7:25, End: 12:30</t>
-  </si>
-  <si>
-    <t>23, Start: 12:30, End: 13:10</t>
-  </si>
-  <si>
-    <t>wait to deliver 23, Start: 13:10, End: 14:30</t>
-  </si>
-  <si>
-    <t>75, Start: 14:30, End: 15:18</t>
-  </si>
-  <si>
-    <t>wait to deliver 75, Start: 15:18, End: 15:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 15:30, End: 16:18</t>
-  </si>
-  <si>
-    <t>59, Start: 7:00, End: 7:34</t>
-  </si>
-  <si>
-    <t>wait to deliver 59, Start: 7:34, End: 15:00</t>
-  </si>
-  <si>
-    <t>7, Start: 15:00, End: 15:48</t>
-  </si>
-  <si>
-    <t>wait to deliver 7, Start: 15:48, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:48</t>
-  </si>
-  <si>
-    <t>24, Start: 7:00, End: 7:45</t>
-  </si>
-  <si>
-    <t>wait to deliver 24, Start: 7:45, End: 8:00</t>
-  </si>
-  <si>
-    <t>73, Start: 8:00, End: 8:28</t>
-  </si>
-  <si>
-    <t>wait to deliver 73, Start: 8:28, End: 12:00</t>
-  </si>
-  <si>
-    <t>42, Start: 12:00, End: 12:24</t>
-  </si>
-  <si>
-    <t>wait to deliver 42, Start: 12:24, End: 14:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 14:30, End: 14:56</t>
-  </si>
-  <si>
-    <t>Order: 47</t>
-  </si>
-  <si>
-    <t>Order: 45</t>
-  </si>
-  <si>
-    <t>87, Start: 7:00, End: 7:38</t>
-  </si>
-  <si>
-    <t>wait to deliver 87, Start: 7:38, End: 12:30</t>
-  </si>
-  <si>
-    <t>18, Start: 12:30, End: 12:43</t>
-  </si>
-  <si>
-    <t>wait to deliver 18, Start: 12:43, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:13</t>
-  </si>
-  <si>
-    <t>37, Start: 7:00, End: 7:42</t>
-  </si>
-  <si>
-    <t>wait to deliver 37, Start: 7:42, End: 15:30</t>
-  </si>
-  <si>
-    <t>65, Start: 15:30, End: 16:15</t>
-  </si>
-  <si>
-    <t>wait to deliver 65, Start: 16:15, End: 16:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 16:30, End: 17:17</t>
-  </si>
-  <si>
-    <t>52, Start: 7:00, End: 7:46</t>
-  </si>
-  <si>
-    <t>wait to deliver 52, Start: 7:46, End: 9:00</t>
-  </si>
-  <si>
-    <t>35, Start: 9:00, End: 9:51</t>
-  </si>
-  <si>
-    <t>wait to deliver 35, Start: 9:51, End: 11:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 11:00, End: 11:50</t>
-  </si>
-  <si>
-    <t>85, Start: 7:00, End: 7:38</t>
-  </si>
-  <si>
-    <t>wait to deliver 85, Start: 7:38, End: 11:30</t>
-  </si>
-  <si>
-    <t>3, Start: 11:30, End: 12:12</t>
-  </si>
-  <si>
-    <t>wait to deliver 3, Start: 12:12, End: 15:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 15:00, End: 15:43</t>
-  </si>
-  <si>
-    <t>Order: 19</t>
-  </si>
-  <si>
-    <t>72, Start: 7:00, End: 7:37</t>
-  </si>
-  <si>
-    <t>wait to deliver 72, Start: 7:37, End: 9:30</t>
-  </si>
-  <si>
-    <t>44, Start: 9:30, End: 9:48</t>
-  </si>
-  <si>
-    <t>wait to deliver 44, Start: 9:48, End: 14:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 14:00, End: 14:15</t>
-  </si>
-  <si>
-    <t>95, Start: 7:00, End: 7:39</t>
-  </si>
-  <si>
-    <t>wait to deliver 95, Start: 7:39, End: 9:00</t>
-  </si>
-  <si>
-    <t>5, Start: 9:00, End: 9:33</t>
-  </si>
-  <si>
-    <t>wait to deliver 5, Start: 9:33, End: 15:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 15:00, End: 15:31</t>
-  </si>
-  <si>
-    <t>31, Start: 7:00, End: 7:50</t>
-  </si>
-  <si>
-    <t>wait to deliver 31, Start: 7:50, End: 17:00</t>
-  </si>
-  <si>
-    <t>48, Start: 7:00, End: 7:28</t>
-  </si>
-  <si>
-    <t>wait to deliver 48, Start: 7:28, End: 17:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:30, End: 17:59</t>
-  </si>
-  <si>
-    <t>38, Start: 7:00, End: 7:50</t>
-  </si>
-  <si>
-    <t>wait to deliver 38, Start: 7:50, End: 8:30</t>
-  </si>
-  <si>
-    <t>36, Start: 8:30, End: 8:54</t>
-  </si>
-  <si>
-    <t>wait to deliver 36, Start: 8:54, End: 11:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 11:00, End: 11:26</t>
-  </si>
-  <si>
-    <t>1, Start: 7:00, End: 7:39</t>
-  </si>
-  <si>
-    <t>wait to deliver 1, Start: 7:39, End: 10:30</t>
-  </si>
-  <si>
-    <t>99, Start: 10:30, End: 10:47</t>
-  </si>
-  <si>
-    <t>wait to deliver 99, Start: 10:47, End: 11:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 11:30, End: 11:48</t>
-  </si>
-  <si>
-    <t>77, Start: 7:00, End: 7:28</t>
-  </si>
-  <si>
-    <t>wait to deliver 77, Start: 7:28, End: 10:00</t>
-  </si>
-  <si>
-    <t>25, Start: 10:00, End: 10:25</t>
-  </si>
-  <si>
-    <t>wait to deliver 25, Start: 10:25, End: 17:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:00, End: 17:29</t>
-  </si>
-  <si>
-    <t>4, Start: 7:00, End: 7:45</t>
-  </si>
-  <si>
-    <t>wait to deliver 4, Start: 7:45, End: 14:00</t>
-  </si>
-  <si>
-    <t>28, Start: 14:00, End: 14:59</t>
-  </si>
-  <si>
-    <t>wait to deliver 28, Start: 14:59, End: 17:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 17:30, End: 18:28</t>
-  </si>
-  <si>
-    <t>43, Start: 7:00, End: 7:39</t>
-  </si>
-  <si>
-    <t>wait to deliver 43, Start: 7:39, End: 17:00</t>
-  </si>
-  <si>
-    <t>40, Start: 7:00, End: 7:12</t>
-  </si>
-  <si>
-    <t>wait to deliver 40, Start: 7:12, End: 8:00</t>
-  </si>
-  <si>
-    <t>69, Start: 8:00, End: 9:00</t>
-  </si>
-  <si>
-    <t>wait to deliver 69, Start: 9:00, End: 14:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 14:00, End: 14:59</t>
-  </si>
-  <si>
-    <t>15, Start: 7:00, End: 7:35</t>
-  </si>
-  <si>
-    <t>wait to deliver 15, Start: 7:35, End: 15:00</t>
-  </si>
-  <si>
-    <t>50, Start: 7:00, End: 7:15</t>
-  </si>
-  <si>
-    <t>wait to deliver 50, Start: 7:15, End: 16:00</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 16:00, End: 16:17</t>
-  </si>
-  <si>
-    <t>63, Start: 7:00, End: 8:01</t>
-  </si>
-  <si>
-    <t>wait to deliver 63, Start: 8:01, End: 11:30</t>
-  </si>
-  <si>
-    <t>Go back to warehouse, Start: 11:30, End: 12:33</t>
-  </si>
-  <si>
-    <t>66, Start: 7:00, End: 7:16</t>
-  </si>
-  <si>
-    <t>wait to deliver 66, Start: 7:16, End: 16:00</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1170,75 +1158,79 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
       <c r="C5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
         <v>169</v>
       </c>
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
       <c r="C6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>184</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1273,60 +1265,76 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>190</v>
       </c>
-      <c r="B6" t="s">
-        <v>195</v>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1361,72 +1369,82 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1479,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>223</v>
@@ -1469,13 +1487,10 @@
       <c r="C2" t="s">
         <v>228</v>
       </c>
-      <c r="D2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
         <v>224</v>
@@ -1483,22 +1498,16 @@
       <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1517,51 +1526,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="D2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="D3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="D4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1573,7 +1537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1600,20 +1564,32 @@
     </row>
     <row r="2" spans="1:5">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="D4" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1707,46 +1683,43 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1781,60 +1754,82 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1869,85 +1864,61 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1982,97 +1953,94 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2107,82 +2075,88 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2191,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -2229,12 +2203,12 @@
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -2245,10 +2219,13 @@
       <c r="D3" t="s">
         <v>134</v>
       </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
@@ -2259,10 +2236,13 @@
       <c r="D4" t="s">
         <v>135</v>
       </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
@@ -2270,13 +2250,13 @@
       <c r="C5" t="s">
         <v>131</v>
       </c>
-      <c r="D5" t="s">
-        <v>136</v>
+      <c r="E5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
@@ -2284,16 +2264,19 @@
       <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
       <c r="B7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
@@ -2305,7 +2288,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2330,94 +2313,72 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
